--- a/[H] Requirements Elicitation/Analysis/Likert Questions Correlations Smartphone.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Likert Questions Correlations Smartphone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{7062A9F7-4324-44AF-BAED-F231CC6B7155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE420B8-E45E-4B1D-B869-240B7323B5CA}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{7062A9F7-4324-44AF-BAED-F231CC6B7155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACCB4343-736C-4F5A-AFB6-6DE25A2F9127}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AA7D1B8E-8831-4893-8797-D816D84882B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AA7D1B8E-8831-4893-8797-D816D84882B1}"/>
   </bookViews>
   <sheets>
     <sheet name="The Data" sheetId="1" r:id="rId1"/>
@@ -638,51 +638,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +654,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,12 +1022,12 @@
       <selection activeCell="O2" sqref="O2:O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="15" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1851,12 +1851,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2394,17 +2394,17 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P16" sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="195" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="202.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2452,1029 +2452,899 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15">
         <f>PEARSON(distraction_awareness,distraction_manual)</f>
         <v>0.45112554112313941</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="15">
         <f>PEARSON(distraction_shift_focus,distraction_manual)</f>
         <v>0.561455941881565</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="15">
         <f>PEARSON(distraction_mental_load,distraction_manual)</f>
         <v>0.18301001254833726</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="15">
         <f>PEARSON(distraction_glance_frequency,distraction_manual)</f>
         <v>0.51641307312168394</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="16">
         <f>PEARSON(distraction_glance_duration,distraction_manual)</f>
         <v>0.38991234361356336</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="17">
         <f>PEARSON(behavior_more_speed,distraction_manual)</f>
         <v>0.31775935447563863</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="18">
         <f>PEARSON(behavior_less_speed,distraction_manual)</f>
         <v>0.28391726973950632</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="18">
         <f>PEARSON(behavior_speed_control,distraction_manual)</f>
         <v>0.16083189741312745</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="18">
         <f>PEARSON(behavior_lane_position,distraction_manual)</f>
         <v>0.29127476615610431</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="18">
         <f>PEARSON(behavior_reaction_time,distraction_manual)</f>
         <v>0.4931558261754011</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="18">
         <f>PEARSON(behavior_wrong_turns,distraction_manual)</f>
         <v>0.37083253275889089</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="19">
         <f>PEARSON(behavior_operating_errors,distraction_manual)</f>
         <v>0.25229097211429807</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="20">
         <f>PEARSON(bad_instructions,distraction_manual)</f>
         <v>-0.10810812216447775</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="15">
         <f>PEARSON(interruptions,distraction_manual)</f>
         <v>9.7802411685603802E-2</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15">
         <f>PEARSON(distraction_shift_focus,distraction_awareness)</f>
         <v>0.43969611793872948</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="15">
         <f>PEARSON(distraction_mental_load,distraction_awareness)</f>
         <v>0.52358827373679828</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="15">
         <f>PEARSON(distraction_glance_frequency,distraction_awareness)</f>
         <v>0.38151080366585138</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="16">
         <f>PEARSON(distraction_glance_duration,distraction_awareness)</f>
         <v>0.14834152599098249</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="21">
         <f>PEARSON(behavior_more_speed,distraction_awareness)</f>
         <v>0.5867698761761907</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="15">
         <f>PEARSON(behavior_less_speed,distraction_awareness)</f>
         <v>7.8288660440576599E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="15">
         <f>PEARSON(behavior_speed_control,distraction_awareness)</f>
         <v>0.44919039744087064</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="15">
         <f>PEARSON(behavior_lane_position,distraction_awareness)</f>
         <v>0.43465914396061112</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="15">
         <f>PEARSON(behavior_reaction_time,distraction_awareness)</f>
         <v>0.40144367574217477</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="15">
         <f>PEARSON(behavior_wrong_turns,distraction_awareness)</f>
         <v>0.38958166712486325</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="22">
         <f>PEARSON(behavior_operating_errors,distraction_awareness)</f>
         <v>0.23845524161913309</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="20">
         <f>PEARSON(bad_instructions,distraction_awareness)</f>
         <v>-2.9887900688611805E-2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="15">
         <f>PEARSON(interruptions,distraction_awareness)</f>
         <v>0.23265090617704443</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15">
         <f>PEARSON(distraction_mental_load,distraction_shift_focus)</f>
         <v>0.40900029368053897</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="15">
         <f>PEARSON(distraction_glance_frequency,distraction_shift_focus)</f>
         <v>0.49703034625985304</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="16">
         <f>PEARSON(distraction_glance_duration,distraction_shift_focus)</f>
         <v>0.56044901847062722</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="21">
         <f>PEARSON(behavior_more_speed,distraction_shift_focus)</f>
         <v>0.44267497295008873</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="15">
         <f>PEARSON(behavior_less_speed,distraction_shift_focus)</f>
         <v>0.1881986765598031</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="15">
         <f>PEARSON(behavior_speed_control,distraction_shift_focus)</f>
         <v>0.24070030928767128</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="15">
         <f>PEARSON(behavior_lane_position,distraction_shift_focus)</f>
         <v>0.44901325506693723</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="15">
         <f>PEARSON(behavior_reaction_time,distraction_shift_focus)</f>
         <v>0.41401304989700238</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="15">
         <f>PEARSON(behavior_wrong_turns,distraction_shift_focus)</f>
         <v>0.46098926735763091</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="22">
         <f>PEARSON(behavior_operating_errors,distraction_shift_focus)</f>
         <v>0.2060214108575823</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="20">
         <f>PEARSON(bad_instructions,distraction_shift_focus)</f>
         <v>-6.1647407428871859E-3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="15">
         <f>PEARSON(interruptions,distraction_shift_focus)</f>
         <v>0.14383242761383178</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="15">
         <f>PEARSON(distraction_glance_frequency,distraction_mental_load)</f>
         <v>0.12568459943980631</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="16">
         <f>PEARSON(distraction_glance_duration,distraction_mental_load)</f>
         <v>0.15642605911136412</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="21">
         <f>PEARSON(behavior_more_speed,distraction_mental_load)</f>
         <v>0.42311209508527597</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="15">
         <f>PEARSON(behavior_less_speed,distraction_mental_load)</f>
         <v>0.25457379457870688</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="15">
         <f>PEARSON(behavior_speed_control,distraction_mental_load)</f>
         <v>0.35041576926017265</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="15">
         <f>PEARSON(behavior_lane_position,distraction_mental_load)</f>
         <v>0.3411211461689766</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="15">
         <f>PEARSON(behavior_reaction_time,distraction_mental_load)</f>
         <v>0.43872771145520362</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="15">
         <f>PEARSON(behavior_wrong_turns,distraction_mental_load)</f>
         <v>3.0074743804696633E-2</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="22">
         <f>PEARSON(behavior_operating_errors,distraction_mental_load)</f>
         <v>0.39129279043561477</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="20">
         <f>PEARSON(bad_instructions,distraction_mental_load)</f>
         <v>0.28623747656762361</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="15">
         <f>PEARSON(interruptions,distraction_mental_load)</f>
         <v>0.43009819372282665</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16">
         <f>PEARSON(distraction_glance_duration,distraction_glance_frequency)</f>
         <v>0.37866440781803024</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="21">
         <f>PEARSON(behavior_more_speed,distraction_glance_frequency)</f>
         <v>6.0491739811978397E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="15">
         <f>PEARSON(behavior_less_speed,distraction_glance_frequency)</f>
         <v>6.4473014480474919E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="15">
         <f>PEARSON(behavior_speed_control,distraction_glance_frequency)</f>
         <v>-0.13858001623175795</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="15">
         <f>PEARSON(behavior_lane_position,distraction_glance_frequency)</f>
         <v>0.20788046015507497</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="15">
         <f>PEARSON(behavior_reaction_time,distraction_glance_frequency)</f>
         <v>0.36825578279605437</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="15">
         <f>PEARSON(behavior_wrong_turns,distraction_glance_frequency)</f>
         <v>0.31480627800358602</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="22">
         <f>PEARSON(behavior_operating_errors,distraction_glance_frequency)</f>
         <v>0.30348848933344186</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="20">
         <f>PEARSON(bad_instructions,distraction_glance_frequency)</f>
         <v>-6.9264069264069306E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="15">
         <f>PEARSON(interruptions,distraction_glance_frequency)</f>
         <v>0.13994507077480411</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="24">
         <f>PEARSON(behavior_more_speed,distraction_glance_duration)</f>
         <v>0.24377495668791901</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="25">
         <f>PEARSON(behavior_less_speed,distraction_glance_duration)</f>
         <v>0.16478671213527846</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="25">
         <f>PEARSON(behavior_speed_control,distraction_glance_duration)</f>
         <v>-0.19091298741226984</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="25">
         <f>PEARSON(behavior_lane_position,distraction_glance_duration)</f>
         <v>0.24291690079048661</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="25">
         <f>PEARSON(behavior_reaction_time,distraction_glance_duration)</f>
         <v>0.14149356525719842</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="25">
         <f>PEARSON(behavior_wrong_turns,distraction_glance_duration)</f>
         <v>0.25552543911120945</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="26">
         <f>PEARSON(behavior_operating_errors,distraction_glance_duration)</f>
         <v>0.39160890153370564</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="20">
         <f>PEARSON(bad_instructions,distraction_glance_duration)</f>
         <v>-7.4492858493425004E-2</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="15">
         <f>PEARSON(interruptions,distraction_glance_duration)</f>
         <v>-0.26153668964471588</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="28">
         <f>PEARSON(behavior_less_speed,behavior_more_speed)</f>
         <v>0.3244870567616539</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="28">
         <f>PEARSON(behavior_speed_control,behavior_more_speed)</f>
         <v>0.57628419702890699</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="28">
         <f>PEARSON(behavior_lane_position,behavior_more_speed)</f>
         <v>0.67859546364434875</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="28">
         <f>PEARSON(behavior_reaction_time,behavior_more_speed)</f>
         <v>0.34948665036408727</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="28">
         <f>PEARSON(behavior_wrong_turns,behavior_more_speed)</f>
         <v>0.19761280322053446</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="28">
         <f>PEARSON(behavior_operating_errors,behavior_more_speed)</f>
         <v>0.35982751596070367</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="15">
         <f>PEARSON(bad_instructions,behavior_more_speed)</f>
         <v>-0.10334563589219847</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="15">
         <f>PEARSON(interruptions,behavior_more_speed)</f>
         <v>7.500697411314039E-2</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="15">
         <f>PEARSON(behavior_speed_control,behavior_less_speed)</f>
         <v>0.47446186019139458</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="15">
         <f>PEARSON(behavior_lane_position,behavior_less_speed)</f>
         <v>0.34603282696829113</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="15">
         <f>PEARSON(behavior_reaction_time,behavior_less_speed)</f>
         <v>0.52698544575526818</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="15">
         <f>PEARSON(behavior_wrong_turns,behavior_less_speed)</f>
         <v>0.41258899409765626</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="15">
         <f>PEARSON(behavior_operating_errors,behavior_less_speed)</f>
         <v>0.51432778131589307</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="15">
         <f>PEARSON(bad_instructions,behavior_less_speed)</f>
         <v>0.37115374447904503</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="15">
         <f>PEARSON(interruptions,behavior_less_speed)</f>
         <v>6.7990816247948824E-2</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="15">
         <f>PEARSON(behavior_lane_position,behavior_speed_control)</f>
         <v>0.65743825865142558</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="15">
         <f>PEARSON(behavior_reaction_time,behavior_speed_control)</f>
         <v>0.36904963583181327</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="15">
         <f>PEARSON(behavior_wrong_turns,behavior_speed_control)</f>
         <v>0.34643814574432097</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="15">
         <f>PEARSON(behavior_operating_errors,behavior_speed_control)</f>
         <v>0.16242873293564727</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="15">
         <f>PEARSON(bad_instructions,behavior_speed_control)</f>
         <v>0.31409555616976115</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="15">
         <f>PEARSON(interruptions,behavior_speed_control)</f>
         <v>4.0475397593734523E-2</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="15">
         <f>PEARSON(behavior_reaction_time,behavior_lane_position)</f>
         <v>0.31025261399701154</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="15">
         <f>PEARSON(behavior_wrong_turns,behavior_lane_position)</f>
         <v>0.32485503365880719</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="15">
         <f>PEARSON(behavior_operating_errors,behavior_lane_position)</f>
         <v>0.11470786693528083</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="15">
         <f>PEARSON(bad_instructions,behavior_lane_position)</f>
         <v>8.5464934536612566E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="15">
         <f>PEARSON(interruptions,behavior_lane_position)</f>
         <v>0.28410823428622711</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="15">
         <f>PEARSON(behavior_wrong_turns,behavior_reaction_time)</f>
         <v>0.51888980381666749</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="15">
         <f>PEARSON(behavior_operating_errors,behavior_reaction_time)</f>
         <v>0.23508271959274063</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="15">
         <f>PEARSON(bad_instructions,behavior_reaction_time)</f>
         <v>0.28426762180748055</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="15">
         <f>PEARSON(interruptions,behavior_reaction_time)</f>
         <v>0.10227944850725754</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="15">
         <f>PEARSON(behavior_operating_errors,behavior_wrong_turns)</f>
         <v>0.1602958438911575</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="15">
         <f>PEARSON(bad_instructions,behavior_wrong_turns)</f>
         <v>0.12911865759985361</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="15">
         <f>PEARSON(interruptions,behavior_wrong_turns)</f>
         <v>-7.2935702066217342E-2</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="B14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="15">
         <f>PEARSON(bad_instructions,behavior_operating_errors)</f>
         <v>0.28090956936636624</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="15">
         <f>PEARSON(interruptions,behavior_operating_errors)</f>
         <v>1.1008970461149931E-2</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="15">
         <f>PEARSON(interruptions,bad_instructions)</f>
         <v>-5.9189215476297317E-2</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="8" t="s">
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:P2">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:O3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:O4">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:O5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:O6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:O7">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:O8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:O9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:O11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:O12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:O13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="B2:P16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P15">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3492,15 +3362,15 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="194.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3548,886 +3418,886 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9">
         <f ca="1">MIN(COUNT(INDIRECT(C$1)),COUNT(INDIRECT($A2)))</f>
         <v>29</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:P15" ca="1" si="0">MIN(COUNT(INDIRECT(D$1)),COUNT(INDIRECT($A2)))</f>
         <v>29</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="24">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="24">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="24">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="24">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="24">
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -4444,17 +4314,17 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="194.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4502,781 +4372,781 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="27" t="s">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="24" t="s">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="24" t="s">
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -5289,19 +5159,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="618a17aee6fe21829d83342cfb0aeda2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f381c43000bb8a88d8a6b5bfc4c73959" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5314,10 +5175,13 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5325,7 +5189,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5360,28 +5224,45 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -5492,7 +5373,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6a03bd9-b31b-493a-b31e-bb4432e88c75" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e881998-9419-4d13-b84d-721ac971c709">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95397029-F5CF-4ACA-80D0-BCF836D944BC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28A0766-FCEC-4762-A935-47BC9DB34F64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5500,6 +5405,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9FFB3F-F84A-491B-9954-D2094B7DCBC9}"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1C9EB5-C9B0-463D-94D0-05DA547C1409}"/>
 </file>